--- a/Fitur_quality.xlsx
+++ b/Fitur_quality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\PKM\Sleep Apnea\CODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE63F945-2538-4E35-A673-50C3A2629A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEFC54E-E205-473D-BDEA-8C579B8C2EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,11 +453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="A1:L1"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1979,6 +1979,2780 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>69.352303810397274</v>
+      </c>
+      <c r="C38">
+        <v>109.7409876289698</v>
+      </c>
+      <c r="D38">
+        <v>68.93870990027203</v>
+      </c>
+      <c r="E38">
+        <v>48.600215964322757</v>
+      </c>
+      <c r="F38">
+        <v>35.398230088495573</v>
+      </c>
+      <c r="G38">
+        <v>4.00390625E-2</v>
+      </c>
+      <c r="H38">
+        <v>0.2919921875</v>
+      </c>
+      <c r="I38">
+        <v>1.0531573423815019</v>
+      </c>
+      <c r="J38">
+        <v>48.743604992653999</v>
+      </c>
+      <c r="K38">
+        <v>146.79544994802359</v>
+      </c>
+      <c r="L38">
+        <v>3.0115837753515899</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>51.961711989896493</v>
+      </c>
+      <c r="C39">
+        <v>85.401966226544943</v>
+      </c>
+      <c r="D39">
+        <v>75.649427872919176</v>
+      </c>
+      <c r="E39">
+        <v>50.280114866420028</v>
+      </c>
+      <c r="F39">
+        <v>45.703125</v>
+      </c>
+      <c r="G39">
+        <v>7.03125E-2</v>
+      </c>
+      <c r="H39">
+        <v>0.2744140625</v>
+      </c>
+      <c r="I39">
+        <v>1.6018306125943329</v>
+      </c>
+      <c r="J39">
+        <v>53.492194916568778</v>
+      </c>
+      <c r="K39">
+        <v>108.2802713193055</v>
+      </c>
+      <c r="L39">
+        <v>2.024225618114738</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>55.543069784479783</v>
+      </c>
+      <c r="C40">
+        <v>165.050147218484</v>
+      </c>
+      <c r="D40">
+        <v>138.0317741561403</v>
+      </c>
+      <c r="E40">
+        <v>120.48026658975</v>
+      </c>
+      <c r="F40">
+        <v>44.360902255639097</v>
+      </c>
+      <c r="G40">
+        <v>4.296875E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.171875</v>
+      </c>
+      <c r="I40">
+        <v>0.9963920433148914</v>
+      </c>
+      <c r="J40">
+        <v>97.603136590563139</v>
+      </c>
+      <c r="K40">
+        <v>211.84501310624779</v>
+      </c>
+      <c r="L40">
+        <v>2.1704734141374948</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>54.762707483957321</v>
+      </c>
+      <c r="C41">
+        <v>109.6401864380104</v>
+      </c>
+      <c r="D41">
+        <v>63.264518126129303</v>
+      </c>
+      <c r="E41">
+        <v>35.604785519065892</v>
+      </c>
+      <c r="F41">
+        <v>48.134328358208947</v>
+      </c>
+      <c r="G41">
+        <v>4.4921875E-2</v>
+      </c>
+      <c r="H41">
+        <v>0.255859375</v>
+      </c>
+      <c r="I41">
+        <v>0.83328024553715985</v>
+      </c>
+      <c r="J41">
+        <v>44.734551211795328</v>
+      </c>
+      <c r="K41">
+        <v>148.3276420834907</v>
+      </c>
+      <c r="L41">
+        <v>3.3157288508659621</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>60.938442409772833</v>
+      </c>
+      <c r="C42">
+        <v>188.6521081565553</v>
+      </c>
+      <c r="D42">
+        <v>89.032341846863957</v>
+      </c>
+      <c r="E42">
+        <v>62.240976374923463</v>
+      </c>
+      <c r="F42">
+        <v>44.912280701754383</v>
+      </c>
+      <c r="G42">
+        <v>4.39453125E-2</v>
+      </c>
+      <c r="H42">
+        <v>0.205078125</v>
+      </c>
+      <c r="I42">
+        <v>1.5870929286219191</v>
+      </c>
+      <c r="J42">
+        <v>62.954089590128163</v>
+      </c>
+      <c r="K42">
+        <v>259.08884897873878</v>
+      </c>
+      <c r="L42">
+        <v>4.1155205430747186</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>68.721677395657053</v>
+      </c>
+      <c r="C43">
+        <v>114.9639964030999</v>
+      </c>
+      <c r="D43">
+        <v>91.280365386566601</v>
+      </c>
+      <c r="E43">
+        <v>69.20435241366981</v>
+      </c>
+      <c r="F43">
+        <v>44.444444444444443</v>
+      </c>
+      <c r="G43">
+        <v>6.93359375E-2</v>
+      </c>
+      <c r="H43">
+        <v>0.2275390625</v>
+      </c>
+      <c r="I43">
+        <v>0.42240301689847182</v>
+      </c>
+      <c r="J43">
+        <v>64.544881488860867</v>
+      </c>
+      <c r="K43">
+        <v>149.1934749654003</v>
+      </c>
+      <c r="L43">
+        <v>2.3114687256982269</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>60.758759571640212</v>
+      </c>
+      <c r="C44">
+        <v>77.305979381678711</v>
+      </c>
+      <c r="D44">
+        <v>74.696061959388473</v>
+      </c>
+      <c r="E44">
+        <v>63.144383530299173</v>
+      </c>
+      <c r="F44">
+        <v>27.759197324414711</v>
+      </c>
+      <c r="G44">
+        <v>7.12890625E-2</v>
+      </c>
+      <c r="H44">
+        <v>0.2373046875</v>
+      </c>
+      <c r="I44">
+        <v>0.98867015815548798</v>
+      </c>
+      <c r="J44">
+        <v>52.815644556602919</v>
+      </c>
+      <c r="K44">
+        <v>94.460598369073196</v>
+      </c>
+      <c r="L44">
+        <v>1.788496555558251</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>103.706960026693</v>
+      </c>
+      <c r="C45">
+        <v>238.39120871116529</v>
+      </c>
+      <c r="D45">
+        <v>284.06711563108689</v>
+      </c>
+      <c r="E45">
+        <v>263.28607365882038</v>
+      </c>
+      <c r="F45">
+        <v>29.022082018927449</v>
+      </c>
+      <c r="G45">
+        <v>0.140625</v>
+      </c>
+      <c r="H45">
+        <v>0.2763671875</v>
+      </c>
+      <c r="I45">
+        <v>0.37031356540891552</v>
+      </c>
+      <c r="J45">
+        <v>200.86570450726819</v>
+      </c>
+      <c r="K45">
+        <v>270.74632764539092</v>
+      </c>
+      <c r="L45">
+        <v>1.347897234670014</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>90.391729378782685</v>
+      </c>
+      <c r="C46">
+        <v>149.49068844398209</v>
+      </c>
+      <c r="D46">
+        <v>186.68416797208209</v>
+      </c>
+      <c r="E46">
+        <v>165.3255852096116</v>
+      </c>
+      <c r="F46">
+        <v>31.666666666666661</v>
+      </c>
+      <c r="G46">
+        <v>0.1044921875</v>
+      </c>
+      <c r="H46">
+        <v>0.32421875</v>
+      </c>
+      <c r="I46">
+        <v>0.41041219328597461</v>
+      </c>
+      <c r="J46">
+        <v>132.0054786857774</v>
+      </c>
+      <c r="K46">
+        <v>164.96638456277779</v>
+      </c>
+      <c r="L46">
+        <v>1.2496934688253341</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>43.105783689577059</v>
+      </c>
+      <c r="C47">
+        <v>84.21791488996567</v>
+      </c>
+      <c r="D47">
+        <v>141.56992072057611</v>
+      </c>
+      <c r="E47">
+        <v>70.779153165022805</v>
+      </c>
+      <c r="F47">
+        <v>81.132075471698116</v>
+      </c>
+      <c r="G47">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H47">
+        <v>0.2587890625</v>
+      </c>
+      <c r="I47">
+        <v>5.5453016062082611E-2</v>
+      </c>
+      <c r="J47">
+        <v>100.1041262687538</v>
+      </c>
+      <c r="K47">
+        <v>63.998360699429718</v>
+      </c>
+      <c r="L47">
+        <v>0.63931790911006581</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>53.103034783981123</v>
+      </c>
+      <c r="C48">
+        <v>56.012750490728287</v>
+      </c>
+      <c r="D48">
+        <v>63.028751964040083</v>
+      </c>
+      <c r="E48">
+        <v>34.651705025735858</v>
+      </c>
+      <c r="F48">
+        <v>48.28897338403042</v>
+      </c>
+      <c r="G48">
+        <v>9.66796875E-2</v>
+      </c>
+      <c r="H48">
+        <v>0.291015625</v>
+      </c>
+      <c r="I48">
+        <v>0.56826849116526446</v>
+      </c>
+      <c r="J48">
+        <v>44.567964175264251</v>
+      </c>
+      <c r="K48">
+        <v>64.926509923037869</v>
+      </c>
+      <c r="L48">
+        <v>1.4567977497853239</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>55.493029190027023</v>
+      </c>
+      <c r="C49">
+        <v>73.260437880622305</v>
+      </c>
+      <c r="D49">
+        <v>58.969186559623232</v>
+      </c>
+      <c r="E49">
+        <v>32.736594315283313</v>
+      </c>
+      <c r="F49">
+        <v>44.160583941605843</v>
+      </c>
+      <c r="G49">
+        <v>4.39453125E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.2294921875</v>
+      </c>
+      <c r="I49">
+        <v>0.54959150447355554</v>
+      </c>
+      <c r="J49">
+        <v>41.691602924116808</v>
+      </c>
+      <c r="K49">
+        <v>93.967588952022339</v>
+      </c>
+      <c r="L49">
+        <v>2.253873258916272</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>188.84784695085841</v>
+      </c>
+      <c r="C50">
+        <v>305.58244779730211</v>
+      </c>
+      <c r="D50">
+        <v>434.01479469470718</v>
+      </c>
+      <c r="E50">
+        <v>276.52086326906272</v>
+      </c>
+      <c r="F50">
+        <v>91.493055555555557</v>
+      </c>
+      <c r="G50">
+        <v>9.765625E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.2255859375</v>
+      </c>
+      <c r="I50">
+        <v>0.59458290630673605</v>
+      </c>
+      <c r="J50">
+        <v>306.89448093061691</v>
+      </c>
+      <c r="K50">
+        <v>304.07447498312479</v>
+      </c>
+      <c r="L50">
+        <v>0.99081115457358271</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>57.703421716575861</v>
+      </c>
+      <c r="C51">
+        <v>46.612549549318473</v>
+      </c>
+      <c r="D51">
+        <v>59.236724028968808</v>
+      </c>
+      <c r="E51">
+        <v>31.474811764906139</v>
+      </c>
+      <c r="F51">
+        <v>47.719298245614027</v>
+      </c>
+      <c r="G51">
+        <v>6.54296875E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.2509765625</v>
+      </c>
+      <c r="I51">
+        <v>0.16441038607835251</v>
+      </c>
+      <c r="J51">
+        <v>41.885800128269587</v>
+      </c>
+      <c r="K51">
+        <v>50.645290601808</v>
+      </c>
+      <c r="L51">
+        <v>1.209127925137246</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>64.691727292500644</v>
+      </c>
+      <c r="C52">
+        <v>19.419827300148711</v>
+      </c>
+      <c r="D52">
+        <v>23.514955347608041</v>
+      </c>
+      <c r="E52">
+        <v>12.371594002639441</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>4.00390625E-2</v>
+      </c>
+      <c r="H52">
+        <v>0.296875</v>
+      </c>
+      <c r="I52">
+        <v>0.43897900921807043</v>
+      </c>
+      <c r="J52">
+        <v>16.62747734714101</v>
+      </c>
+      <c r="K52">
+        <v>21.783603598628659</v>
+      </c>
+      <c r="L52">
+        <v>1.310096723864983</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>276.52099929675978</v>
+      </c>
+      <c r="C53">
+        <v>415.62967062381978</v>
+      </c>
+      <c r="D53">
+        <v>362.17378850569622</v>
+      </c>
+      <c r="E53">
+        <v>269.12935139690518</v>
+      </c>
+      <c r="F53">
+        <v>77.488151658767762</v>
+      </c>
+      <c r="G53">
+        <v>0.13671875</v>
+      </c>
+      <c r="H53">
+        <v>0.3935546875</v>
+      </c>
+      <c r="I53">
+        <v>5.6040069079690967E-2</v>
+      </c>
+      <c r="J53">
+        <v>256.09536813902849</v>
+      </c>
+      <c r="K53">
+        <v>528.78289561943075</v>
+      </c>
+      <c r="L53">
+        <v>2.06478898646994</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>60.283068948161251</v>
+      </c>
+      <c r="C54">
+        <v>55.078140471200157</v>
+      </c>
+      <c r="D54">
+        <v>57.014068674719553</v>
+      </c>
+      <c r="E54">
+        <v>34.666355734592202</v>
+      </c>
+      <c r="F54">
+        <v>39.932885906040269</v>
+      </c>
+      <c r="G54">
+        <v>6.0546875E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.2138671875</v>
+      </c>
+      <c r="I54">
+        <v>0.20322456492693849</v>
+      </c>
+      <c r="J54">
+        <v>40.314815596260829</v>
+      </c>
+      <c r="K54">
+        <v>66.589144979409213</v>
+      </c>
+      <c r="L54">
+        <v>1.651728874225219</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>63.573914544704728</v>
+      </c>
+      <c r="C55">
+        <v>64.226462454550159</v>
+      </c>
+      <c r="D55">
+        <v>38.664365002145168</v>
+      </c>
+      <c r="E55">
+        <v>24.13295745950024</v>
+      </c>
+      <c r="F55">
+        <v>15.605095541401271</v>
+      </c>
+      <c r="G55">
+        <v>6.4453125E-2</v>
+      </c>
+      <c r="H55">
+        <v>0.212890625</v>
+      </c>
+      <c r="I55">
+        <v>2.586832577494985</v>
+      </c>
+      <c r="J55">
+        <v>27.339466580717541</v>
+      </c>
+      <c r="K55">
+        <v>86.346595991598193</v>
+      </c>
+      <c r="L55">
+        <v>3.1583131198506349</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>77.779817227399306</v>
+      </c>
+      <c r="C56">
+        <v>221.3193223574562</v>
+      </c>
+      <c r="D56">
+        <v>435.23289854703501</v>
+      </c>
+      <c r="E56">
+        <v>62.171016637709613</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>0.1298828125</v>
+      </c>
+      <c r="H56">
+        <v>0.2197265625</v>
+      </c>
+      <c r="I56">
+        <v>0.41360696558750071</v>
+      </c>
+      <c r="J56">
+        <v>307.75607057588911</v>
+      </c>
+      <c r="K56">
+        <v>53.475011789292623</v>
+      </c>
+      <c r="L56">
+        <v>0.17375778059950989</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>53.332533445334207</v>
+      </c>
+      <c r="C57">
+        <v>65.787217947574845</v>
+      </c>
+      <c r="D57">
+        <v>79.276624990989475</v>
+      </c>
+      <c r="E57">
+        <v>39.116824253586188</v>
+      </c>
+      <c r="F57">
+        <v>66.539923954372625</v>
+      </c>
+      <c r="G57">
+        <v>5.56640625E-2</v>
+      </c>
+      <c r="H57">
+        <v>0.21875</v>
+      </c>
+      <c r="I57">
+        <v>0.62819291042198555</v>
+      </c>
+      <c r="J57">
+        <v>56.056539816033407</v>
+      </c>
+      <c r="K57">
+        <v>74.127290294005334</v>
+      </c>
+      <c r="L57">
+        <v>1.3223664988469961</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>61.576572875969148</v>
+      </c>
+      <c r="C58">
+        <v>78.997846771908158</v>
+      </c>
+      <c r="D58">
+        <v>70.739120027819339</v>
+      </c>
+      <c r="E58">
+        <v>44.222563559241863</v>
+      </c>
+      <c r="F58">
+        <v>48.184818481848183</v>
+      </c>
+      <c r="G58">
+        <v>5.56640625E-2</v>
+      </c>
+      <c r="H58">
+        <v>0.22265625</v>
+      </c>
+      <c r="I58">
+        <v>0.97787689866957017</v>
+      </c>
+      <c r="J58">
+        <v>50.019921964340739</v>
+      </c>
+      <c r="K58">
+        <v>99.556189293539049</v>
+      </c>
+      <c r="L58">
+        <v>1.9903307599022799</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>55.802645350264193</v>
+      </c>
+      <c r="C59">
+        <v>88.324010644840996</v>
+      </c>
+      <c r="D59">
+        <v>65.35436272562626</v>
+      </c>
+      <c r="E59">
+        <v>34.809113741506607</v>
+      </c>
+      <c r="F59">
+        <v>52.72727272727272</v>
+      </c>
+      <c r="G59">
+        <v>7.03125E-2</v>
+      </c>
+      <c r="H59">
+        <v>0.236328125</v>
+      </c>
+      <c r="I59">
+        <v>0.73279105067118266</v>
+      </c>
+      <c r="J59">
+        <v>46.212348247827777</v>
+      </c>
+      <c r="K59">
+        <v>116.0182862189839</v>
+      </c>
+      <c r="L59">
+        <v>2.5105473021366622</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>63.008335457513382</v>
+      </c>
+      <c r="C60">
+        <v>46.184208750088089</v>
+      </c>
+      <c r="D60">
+        <v>65.934942683425959</v>
+      </c>
+      <c r="E60">
+        <v>35.704471131795529</v>
+      </c>
+      <c r="F60">
+        <v>50.641025641025642</v>
+      </c>
+      <c r="G60">
+        <v>4.78515625E-2</v>
+      </c>
+      <c r="H60">
+        <v>0.2578125</v>
+      </c>
+      <c r="I60">
+        <v>3.1821758985669073E-2</v>
+      </c>
+      <c r="J60">
+        <v>46.623044207243247</v>
+      </c>
+      <c r="K60">
+        <v>45.740866022164397</v>
+      </c>
+      <c r="L60">
+        <v>0.98107849454965868</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>53.362110423053153</v>
+      </c>
+      <c r="C61">
+        <v>215.5899619260891</v>
+      </c>
+      <c r="D61">
+        <v>100.31054954094481</v>
+      </c>
+      <c r="E61">
+        <v>78.29125605102189</v>
+      </c>
+      <c r="F61">
+        <v>46.428571428571431</v>
+      </c>
+      <c r="G61">
+        <v>4.4921875E-2</v>
+      </c>
+      <c r="H61">
+        <v>0.244140625</v>
+      </c>
+      <c r="I61">
+        <v>2.545867455956631</v>
+      </c>
+      <c r="J61">
+        <v>70.930267806885254</v>
+      </c>
+      <c r="K61">
+        <v>296.24592171459011</v>
+      </c>
+      <c r="L61">
+        <v>4.1765797715743753</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>44.312701648223658</v>
+      </c>
+      <c r="C62">
+        <v>149.62080975836761</v>
+      </c>
+      <c r="D62">
+        <v>221.37314526483209</v>
+      </c>
+      <c r="E62">
+        <v>112.0406832679496</v>
+      </c>
+      <c r="F62">
+        <v>86.111111111111114</v>
+      </c>
+      <c r="G62">
+        <v>5.078125E-2</v>
+      </c>
+      <c r="H62">
+        <v>0.2685546875</v>
+      </c>
+      <c r="I62">
+        <v>0.19672801909059759</v>
+      </c>
+      <c r="J62">
+        <v>156.53301361509389</v>
+      </c>
+      <c r="K62">
+        <v>142.02053838306841</v>
+      </c>
+      <c r="L62">
+        <v>0.9072880864115288</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>54.322272248353357</v>
+      </c>
+      <c r="C63">
+        <v>91.057764044343429</v>
+      </c>
+      <c r="D63">
+        <v>71.212795004020478</v>
+      </c>
+      <c r="E63">
+        <v>47.99321758470758</v>
+      </c>
+      <c r="F63">
+        <v>42.322097378277149</v>
+      </c>
+      <c r="G63">
+        <v>5.76171875E-2</v>
+      </c>
+      <c r="H63">
+        <v>0.3115234375</v>
+      </c>
+      <c r="I63">
+        <v>1.520943222102433</v>
+      </c>
+      <c r="J63">
+        <v>50.354823985547753</v>
+      </c>
+      <c r="K63">
+        <v>118.4445612298088</v>
+      </c>
+      <c r="L63">
+        <v>2.3521988928767459</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>47.806803923384429</v>
+      </c>
+      <c r="C64">
+        <v>137.9456088927885</v>
+      </c>
+      <c r="D64">
+        <v>119.4839224553743</v>
+      </c>
+      <c r="E64">
+        <v>76.965509757105366</v>
+      </c>
+      <c r="F64">
+        <v>67.381974248927037</v>
+      </c>
+      <c r="G64">
+        <v>4.19921875E-2</v>
+      </c>
+      <c r="H64">
+        <v>0.23828125</v>
+      </c>
+      <c r="I64">
+        <v>1.8243491049897591</v>
+      </c>
+      <c r="J64">
+        <v>84.487726934183229</v>
+      </c>
+      <c r="K64">
+        <v>175.8040384589541</v>
+      </c>
+      <c r="L64">
+        <v>2.0808233910223102</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>58.990443208778871</v>
+      </c>
+      <c r="C65">
+        <v>120.9092891819155</v>
+      </c>
+      <c r="D65">
+        <v>153.82354065909311</v>
+      </c>
+      <c r="E65">
+        <v>85.039775307060154</v>
+      </c>
+      <c r="F65">
+        <v>76.816608996539799</v>
+      </c>
+      <c r="G65">
+        <v>5.95703125E-2</v>
+      </c>
+      <c r="H65">
+        <v>0.2353515625</v>
+      </c>
+      <c r="I65">
+        <v>0.29135500082498478</v>
+      </c>
+      <c r="J65">
+        <v>108.769650103158</v>
+      </c>
+      <c r="K65">
+        <v>131.29744362280391</v>
+      </c>
+      <c r="L65">
+        <v>1.207114700638279</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>60.945152141389002</v>
+      </c>
+      <c r="C66">
+        <v>37.663188596167323</v>
+      </c>
+      <c r="D66">
+        <v>45.143035871634083</v>
+      </c>
+      <c r="E66">
+        <v>24.982148665356721</v>
+      </c>
+      <c r="F66">
+        <v>31.893687707641199</v>
+      </c>
+      <c r="G66">
+        <v>4.296875E-2</v>
+      </c>
+      <c r="H66">
+        <v>0.26953125</v>
+      </c>
+      <c r="I66">
+        <v>0.37299160121669223</v>
+      </c>
+      <c r="J66">
+        <v>31.92088835246712</v>
+      </c>
+      <c r="K66">
+        <v>42.608414574209107</v>
+      </c>
+      <c r="L66">
+        <v>1.334812932012776</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>54.896777028406518</v>
+      </c>
+      <c r="C67">
+        <v>366.49158097917842</v>
+      </c>
+      <c r="D67">
+        <v>581.15521079334565</v>
+      </c>
+      <c r="E67">
+        <v>435.45611423642322</v>
+      </c>
+      <c r="F67">
+        <v>85.483870967741936</v>
+      </c>
+      <c r="G67">
+        <v>5.078125E-2</v>
+      </c>
+      <c r="H67">
+        <v>0.1748046875</v>
+      </c>
+      <c r="I67">
+        <v>0.44687169561606599</v>
+      </c>
+      <c r="J67">
+        <v>410.9354629800784</v>
+      </c>
+      <c r="K67">
+        <v>313.50283726582973</v>
+      </c>
+      <c r="L67">
+        <v>0.7629004199158832</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>64.468750976347309</v>
+      </c>
+      <c r="C68">
+        <v>155.97550339714809</v>
+      </c>
+      <c r="D68">
+        <v>98.984521435782924</v>
+      </c>
+      <c r="E68">
+        <v>69.616827884573311</v>
+      </c>
+      <c r="F68">
+        <v>53.548387096774199</v>
+      </c>
+      <c r="G68">
+        <v>6.4453125E-2</v>
+      </c>
+      <c r="H68">
+        <v>0.2275390625</v>
+      </c>
+      <c r="I68">
+        <v>3.1332079349158199</v>
+      </c>
+      <c r="J68">
+        <v>69.992616824845129</v>
+      </c>
+      <c r="K68">
+        <v>209.00681724912161</v>
+      </c>
+      <c r="L68">
+        <v>2.9861266335013039</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>57.284087670574273</v>
+      </c>
+      <c r="C69">
+        <v>154.3738088243571</v>
+      </c>
+      <c r="D69">
+        <v>105.3550243672331</v>
+      </c>
+      <c r="E69">
+        <v>77.612842410150606</v>
+      </c>
+      <c r="F69">
+        <v>56.884057971014492</v>
+      </c>
+      <c r="G69">
+        <v>4.58984375E-2</v>
+      </c>
+      <c r="H69">
+        <v>0.259765625</v>
+      </c>
+      <c r="I69">
+        <v>0.50468974732974581</v>
+      </c>
+      <c r="J69">
+        <v>74.486931622712774</v>
+      </c>
+      <c r="K69">
+        <v>203.77477286217359</v>
+      </c>
+      <c r="L69">
+        <v>2.735711733896125</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>82.983716591312913</v>
+      </c>
+      <c r="C70">
+        <v>73.101354273010926</v>
+      </c>
+      <c r="D70">
+        <v>63.249428424914889</v>
+      </c>
+      <c r="E70">
+        <v>60.297705128180517</v>
+      </c>
+      <c r="F70">
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="G70">
+        <v>8.30078125E-2</v>
+      </c>
+      <c r="H70">
+        <v>0.314453125</v>
+      </c>
+      <c r="I70">
+        <v>3.6654794677558482</v>
+      </c>
+      <c r="J70">
+        <v>44.724096387450587</v>
+      </c>
+      <c r="K70">
+        <v>93.203911583514085</v>
+      </c>
+      <c r="L70">
+        <v>2.0839752865228758</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>58.863313324498307</v>
+      </c>
+      <c r="C71">
+        <v>71.472882676935029</v>
+      </c>
+      <c r="D71">
+        <v>26.475690723996511</v>
+      </c>
+      <c r="E71">
+        <v>16.083642022374001</v>
+      </c>
+      <c r="F71">
+        <v>5.1546391752577314</v>
+      </c>
+      <c r="G71">
+        <v>6.15234375E-2</v>
+      </c>
+      <c r="H71">
+        <v>0.2607421875</v>
+      </c>
+      <c r="I71">
+        <v>2.8092627586861019</v>
+      </c>
+      <c r="J71">
+        <v>18.721139816750171</v>
+      </c>
+      <c r="K71">
+        <v>99.234119127580968</v>
+      </c>
+      <c r="L71">
+        <v>5.3006451583035714</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>65.329846264945971</v>
+      </c>
+      <c r="C72">
+        <v>117.9209899494785</v>
+      </c>
+      <c r="D72">
+        <v>64.994387759648703</v>
+      </c>
+      <c r="E72">
+        <v>38.781809758298813</v>
+      </c>
+      <c r="F72">
+        <v>45.59748427672956</v>
+      </c>
+      <c r="G72">
+        <v>6.4453125E-2</v>
+      </c>
+      <c r="H72">
+        <v>0.33984375</v>
+      </c>
+      <c r="I72">
+        <v>1.0827325736488489</v>
+      </c>
+      <c r="J72">
+        <v>45.957708737979083</v>
+      </c>
+      <c r="K72">
+        <v>160.2643452474093</v>
+      </c>
+      <c r="L72">
+        <v>3.4872135632594778</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>58.965139289828791</v>
+      </c>
+      <c r="C73">
+        <v>51.404917043830892</v>
+      </c>
+      <c r="D73">
+        <v>29.81983572623642</v>
+      </c>
+      <c r="E73">
+        <v>18.171082479548591</v>
+      </c>
+      <c r="F73">
+        <v>7.8767123287671232</v>
+      </c>
+      <c r="G73">
+        <v>5.37109375E-2</v>
+      </c>
+      <c r="H73">
+        <v>0.3173828125</v>
+      </c>
+      <c r="I73">
+        <v>6.5140053122388082</v>
+      </c>
+      <c r="J73">
+        <v>21.085550943139179</v>
+      </c>
+      <c r="K73">
+        <v>69.54924280434355</v>
+      </c>
+      <c r="L73">
+        <v>3.2984313756797281</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>48.478862487387737</v>
+      </c>
+      <c r="C74">
+        <v>149.16245533477979</v>
+      </c>
+      <c r="D74">
+        <v>98.907521818820371</v>
+      </c>
+      <c r="E74">
+        <v>82.525777685171093</v>
+      </c>
+      <c r="F74">
+        <v>39.148936170212757</v>
+      </c>
+      <c r="G74">
+        <v>4.8828125E-2</v>
+      </c>
+      <c r="H74">
+        <v>0.158203125</v>
+      </c>
+      <c r="I74">
+        <v>0.72541522112317158</v>
+      </c>
+      <c r="J74">
+        <v>69.938170067659442</v>
+      </c>
+      <c r="K74">
+        <v>198.9683785509547</v>
+      </c>
+      <c r="L74">
+        <v>2.8449182807967248</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>48.606241761259511</v>
+      </c>
+      <c r="C75">
+        <v>123.00278047770981</v>
+      </c>
+      <c r="D75">
+        <v>91.692685221923512</v>
+      </c>
+      <c r="E75">
+        <v>78.551342321652953</v>
+      </c>
+      <c r="F75">
+        <v>34.599156118143462</v>
+      </c>
+      <c r="G75">
+        <v>5.2734375E-2</v>
+      </c>
+      <c r="H75">
+        <v>0.2255859375</v>
+      </c>
+      <c r="I75">
+        <v>5.018014143769201</v>
+      </c>
+      <c r="J75">
+        <v>64.835036088594137</v>
+      </c>
+      <c r="K75">
+        <v>161.2743637160946</v>
+      </c>
+      <c r="L75">
+        <v>2.4874569900095449</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>46.134291110100087</v>
+      </c>
+      <c r="C76">
+        <v>212.0075094389299</v>
+      </c>
+      <c r="D76">
+        <v>102.9931555497262</v>
+      </c>
+      <c r="E76">
+        <v>71.105035497719541</v>
+      </c>
+      <c r="F76">
+        <v>52.702702702702688</v>
+      </c>
+      <c r="G76">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="H76">
+        <v>0.2021484375</v>
+      </c>
+      <c r="I76">
+        <v>3.1719351980365138</v>
+      </c>
+      <c r="J76">
+        <v>72.8254852691217</v>
+      </c>
+      <c r="K76">
+        <v>290.74977766735958</v>
+      </c>
+      <c r="L76">
+        <v>3.9924179920382721</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>327.70615186642442</v>
+      </c>
+      <c r="C77">
+        <v>296.66677825367071</v>
+      </c>
+      <c r="D77">
+        <v>372.82553398054529</v>
+      </c>
+      <c r="E77">
+        <v>270.40653639593791</v>
+      </c>
+      <c r="F77">
+        <v>85.016835016835017</v>
+      </c>
+      <c r="G77">
+        <v>0.130859375</v>
+      </c>
+      <c r="H77">
+        <v>0.3076171875</v>
+      </c>
+      <c r="I77">
+        <v>0.24018603570391511</v>
+      </c>
+      <c r="J77">
+        <v>263.62700706033718</v>
+      </c>
+      <c r="K77">
+        <v>325.67196955893633</v>
+      </c>
+      <c r="L77">
+        <v>1.2353513139281611</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>198.31227174649089</v>
+      </c>
+      <c r="C78">
+        <v>352.04339534718548</v>
+      </c>
+      <c r="D78">
+        <v>446.99803387034109</v>
+      </c>
+      <c r="E78">
+        <v>295.26880766907829</v>
+      </c>
+      <c r="F78">
+        <v>94.907407407407405</v>
+      </c>
+      <c r="G78">
+        <v>6.4453125E-2</v>
+      </c>
+      <c r="H78">
+        <v>0.193359375</v>
+      </c>
+      <c r="I78">
+        <v>0.79932683381883995</v>
+      </c>
+      <c r="J78">
+        <v>316.07519639643391</v>
+      </c>
+      <c r="K78">
+        <v>384.55881318001241</v>
+      </c>
+      <c r="L78">
+        <v>1.2166687470714519</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>62.660646084791182</v>
+      </c>
+      <c r="C79">
+        <v>52.780551921467598</v>
+      </c>
+      <c r="D79">
+        <v>49.203691180707693</v>
+      </c>
+      <c r="E79">
+        <v>31.845738320379059</v>
+      </c>
+      <c r="F79">
+        <v>32.903225806451623</v>
+      </c>
+      <c r="G79">
+        <v>4.8828125E-2</v>
+      </c>
+      <c r="H79">
+        <v>0.275390625</v>
+      </c>
+      <c r="I79">
+        <v>1.6117174467672359</v>
+      </c>
+      <c r="J79">
+        <v>34.792261824008868</v>
+      </c>
+      <c r="K79">
+        <v>65.950506818642381</v>
+      </c>
+      <c r="L79">
+        <v>1.8955510036180621</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>56.755012449861937</v>
+      </c>
+      <c r="C80">
+        <v>52.859768583705772</v>
+      </c>
+      <c r="D80">
+        <v>52.156084427966242</v>
+      </c>
+      <c r="E80">
+        <v>29.797950767522192</v>
+      </c>
+      <c r="F80">
+        <v>38.928571428571431</v>
+      </c>
+      <c r="G80">
+        <v>4.78515625E-2</v>
+      </c>
+      <c r="H80">
+        <v>0.234375</v>
+      </c>
+      <c r="I80">
+        <v>0.57692521305146049</v>
+      </c>
+      <c r="J80">
+        <v>36.879721766182293</v>
+      </c>
+      <c r="K80">
+        <v>64.874995772875479</v>
+      </c>
+      <c r="L80">
+        <v>1.7590966706360589</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>63.091897756068633</v>
+      </c>
+      <c r="C81">
+        <v>217.92177222370481</v>
+      </c>
+      <c r="D81">
+        <v>297.82974256369278</v>
+      </c>
+      <c r="E81">
+        <v>232.47332722400191</v>
+      </c>
+      <c r="F81">
+        <v>64.309764309764304</v>
+      </c>
+      <c r="G81">
+        <v>0.1171875</v>
+      </c>
+      <c r="H81">
+        <v>0.2138671875</v>
+      </c>
+      <c r="I81">
+        <v>0.54786503812209764</v>
+      </c>
+      <c r="J81">
+        <v>210.55894476835101</v>
+      </c>
+      <c r="K81">
+        <v>207.75630011316269</v>
+      </c>
+      <c r="L81">
+        <v>0.98668950085083496</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>66.182262475004251</v>
+      </c>
+      <c r="C82">
+        <v>98.214127562186889</v>
+      </c>
+      <c r="D82">
+        <v>44.663349793928518</v>
+      </c>
+      <c r="E82">
+        <v>29.19474773159407</v>
+      </c>
+      <c r="F82">
+        <v>24.074074074074069</v>
+      </c>
+      <c r="G82">
+        <v>6.0546875E-2</v>
+      </c>
+      <c r="H82">
+        <v>0.2509765625</v>
+      </c>
+      <c r="I82">
+        <v>3.6192522158139711</v>
+      </c>
+      <c r="J82">
+        <v>31.581752683722708</v>
+      </c>
+      <c r="K82">
+        <v>135.2478638025795</v>
+      </c>
+      <c r="L82">
+        <v>4.2824685873842112</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>52.45533416069658</v>
+      </c>
+      <c r="C83">
+        <v>68.438509678511068</v>
+      </c>
+      <c r="D83">
+        <v>28.99211333550755</v>
+      </c>
+      <c r="E83">
+        <v>17.694993081110841</v>
+      </c>
+      <c r="F83">
+        <v>7.3643410852713176</v>
+      </c>
+      <c r="G83">
+        <v>5.37109375E-2</v>
+      </c>
+      <c r="H83">
+        <v>0.2626953125</v>
+      </c>
+      <c r="I83">
+        <v>3.0392675347164619</v>
+      </c>
+      <c r="J83">
+        <v>20.48774735296837</v>
+      </c>
+      <c r="K83">
+        <v>93.760432105916507</v>
+      </c>
+      <c r="L83">
+        <v>4.5764148927935713</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>68.856256445433146</v>
+      </c>
+      <c r="C84">
+        <v>94.77854767188488</v>
+      </c>
+      <c r="D84">
+        <v>58.09459604431585</v>
+      </c>
+      <c r="E84">
+        <v>47.286210844079108</v>
+      </c>
+      <c r="F84">
+        <v>19.402985074626869</v>
+      </c>
+      <c r="G84">
+        <v>7.12890625E-2</v>
+      </c>
+      <c r="H84">
+        <v>0.2451171875</v>
+      </c>
+      <c r="I84">
+        <v>3.2669583853829249</v>
+      </c>
+      <c r="J84">
+        <v>41.07891877090907</v>
+      </c>
+      <c r="K84">
+        <v>127.456193270239</v>
+      </c>
+      <c r="L84">
+        <v>3.102715385013977</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>70.281657585738131</v>
+      </c>
+      <c r="C85">
+        <v>46.210072376367428</v>
+      </c>
+      <c r="D85">
+        <v>52.429780129048829</v>
+      </c>
+      <c r="E85">
+        <v>30.503491780085849</v>
+      </c>
+      <c r="F85">
+        <v>34.870317002881848</v>
+      </c>
+      <c r="G85">
+        <v>4.00390625E-2</v>
+      </c>
+      <c r="H85">
+        <v>0.26953125</v>
+      </c>
+      <c r="I85">
+        <v>0.27200156829899369</v>
+      </c>
+      <c r="J85">
+        <v>37.073434920112568</v>
+      </c>
+      <c r="K85">
+        <v>53.812020804257223</v>
+      </c>
+      <c r="L85">
+        <v>1.4514981123333639</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>53.425562035686632</v>
+      </c>
+      <c r="C86">
+        <v>67.334599886757061</v>
+      </c>
+      <c r="D86">
+        <v>89.485122345628611</v>
+      </c>
+      <c r="E86">
+        <v>48.652800974164258</v>
+      </c>
+      <c r="F86">
+        <v>64.772727272727266</v>
+      </c>
+      <c r="G86">
+        <v>6.93359375E-2</v>
+      </c>
+      <c r="H86">
+        <v>0.2451171875</v>
+      </c>
+      <c r="I86">
+        <v>7.8950311206448548E-2</v>
+      </c>
+      <c r="J86">
+        <v>63.275495499843288</v>
+      </c>
+      <c r="K86">
+        <v>71.151222701424558</v>
+      </c>
+      <c r="L86">
+        <v>1.124467254493499</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>65.443796628776767</v>
+      </c>
+      <c r="C87">
+        <v>173.99344567258561</v>
+      </c>
+      <c r="D87">
+        <v>221.35393494611529</v>
+      </c>
+      <c r="E87">
+        <v>190.31667251928849</v>
+      </c>
+      <c r="F87">
+        <v>58.064516129032263</v>
+      </c>
+      <c r="G87">
+        <v>6.0546875E-2</v>
+      </c>
+      <c r="H87">
+        <v>0.255859375</v>
+      </c>
+      <c r="I87">
+        <v>1.508408858329453</v>
+      </c>
+      <c r="J87">
+        <v>156.52065621527521</v>
+      </c>
+      <c r="K87">
+        <v>189.64759779009759</v>
+      </c>
+      <c r="L87">
+        <v>1.2116458132481911</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>70.782449742052748</v>
+      </c>
+      <c r="C88">
+        <v>195.3616538289252</v>
+      </c>
+      <c r="D88">
+        <v>166.53299866684199</v>
+      </c>
+      <c r="E88">
+        <v>138.91528372170231</v>
+      </c>
+      <c r="F88">
+        <v>37.278106508875737</v>
+      </c>
+      <c r="G88">
+        <v>0.1455078125</v>
+      </c>
+      <c r="H88">
+        <v>0.169921875</v>
+      </c>
+      <c r="I88">
+        <v>1.075513068528364</v>
+      </c>
+      <c r="J88">
+        <v>117.7529985071929</v>
+      </c>
+      <c r="K88">
+        <v>249.07772957047831</v>
+      </c>
+      <c r="L88">
+        <v>2.1152559402150901</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>55.801756459283311</v>
+      </c>
+      <c r="C89">
+        <v>67.808256198219198</v>
+      </c>
+      <c r="D89">
+        <v>84.754526192675556</v>
+      </c>
+      <c r="E89">
+        <v>45.103389208019237</v>
+      </c>
+      <c r="F89">
+        <v>64.130434782608688</v>
+      </c>
+      <c r="G89">
+        <v>5.37109375E-2</v>
+      </c>
+      <c r="H89">
+        <v>0.2783203125</v>
+      </c>
+      <c r="I89">
+        <v>0.64978704450387137</v>
+      </c>
+      <c r="J89">
+        <v>59.930066441074381</v>
+      </c>
+      <c r="K89">
+        <v>74.691509144478871</v>
+      </c>
+      <c r="L89">
+        <v>1.2463111352949781</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>71.769225819805243</v>
+      </c>
+      <c r="C90">
+        <v>206.86552919258611</v>
+      </c>
+      <c r="D90">
+        <v>317.58454877297692</v>
+      </c>
+      <c r="E90">
+        <v>247.59512187088049</v>
+      </c>
+      <c r="F90">
+        <v>43.202416918429002</v>
+      </c>
+      <c r="G90">
+        <v>4.19921875E-2</v>
+      </c>
+      <c r="H90">
+        <v>0.1796875</v>
+      </c>
+      <c r="I90">
+        <v>5.1610198766621034</v>
+      </c>
+      <c r="J90">
+        <v>224.5638469135738</v>
+      </c>
+      <c r="K90">
+        <v>186.05810086730659</v>
+      </c>
+      <c r="L90">
+        <v>0.82853096535576098</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>58.266387794771987</v>
+      </c>
+      <c r="C91">
+        <v>151.2415729303701</v>
+      </c>
+      <c r="D91">
+        <v>54.361705597423928</v>
+      </c>
+      <c r="E91">
+        <v>31.4510522208389</v>
+      </c>
+      <c r="F91">
+        <v>37.588652482269502</v>
+      </c>
+      <c r="G91">
+        <v>9.27734375E-2</v>
+      </c>
+      <c r="H91">
+        <v>0.2236328125</v>
+      </c>
+      <c r="I91">
+        <v>0.80642399940657394</v>
+      </c>
+      <c r="J91">
+        <v>38.420288412400907</v>
+      </c>
+      <c r="K91">
+        <v>209.0905464219702</v>
+      </c>
+      <c r="L91">
+        <v>5.4421909637326413</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>44.285748857277213</v>
+      </c>
+      <c r="C92">
+        <v>50.136652406072542</v>
+      </c>
+      <c r="D92">
+        <v>75.587259442014016</v>
+      </c>
+      <c r="E92">
+        <v>39.631522505934733</v>
+      </c>
+      <c r="F92">
+        <v>60.730593607305941</v>
+      </c>
+      <c r="G92">
+        <v>5.17578125E-2</v>
+      </c>
+      <c r="H92">
+        <v>0.275390625</v>
+      </c>
+      <c r="I92">
+        <v>0.33443038914911399</v>
+      </c>
+      <c r="J92">
+        <v>53.448262162347007</v>
+      </c>
+      <c r="K92">
+        <v>46.457284567898022</v>
+      </c>
+      <c r="L92">
+        <v>0.8692010308358733</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>59.18775570844317</v>
+      </c>
+      <c r="C93">
+        <v>76.360708270078263</v>
+      </c>
+      <c r="D93">
+        <v>66.011754439174936</v>
+      </c>
+      <c r="E93">
+        <v>42.284508608914201</v>
+      </c>
+      <c r="F93">
+        <v>45.862068965517238</v>
+      </c>
+      <c r="G93">
+        <v>8.203125E-2</v>
+      </c>
+      <c r="H93">
+        <v>0.251953125</v>
+      </c>
+      <c r="I93">
+        <v>0.4125554002393183</v>
+      </c>
+      <c r="J93">
+        <v>46.6551851568655</v>
+      </c>
+      <c r="K93">
+        <v>91.203364901314004</v>
+      </c>
+      <c r="L93">
+        <v>1.954838772896673</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>51.336505404651717</v>
+      </c>
+      <c r="C94">
+        <v>59.679873178665389</v>
+      </c>
+      <c r="D94">
+        <v>58.091564975130787</v>
+      </c>
+      <c r="E94">
+        <v>34.31707679379678</v>
+      </c>
+      <c r="F94">
+        <v>44.094488188976378</v>
+      </c>
+      <c r="G94">
+        <v>4.00390625E-2</v>
+      </c>
+      <c r="H94">
+        <v>0.197265625</v>
+      </c>
+      <c r="I94">
+        <v>0.1999631434895997</v>
+      </c>
+      <c r="J94">
+        <v>41.075958046875293</v>
+      </c>
+      <c r="K94">
+        <v>73.573622543380765</v>
+      </c>
+      <c r="L94">
+        <v>1.7911602319639051</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>50.285261698392063</v>
+      </c>
+      <c r="C95">
+        <v>114.4522449843132</v>
+      </c>
+      <c r="D95">
+        <v>106.30434525991031</v>
+      </c>
+      <c r="E95">
+        <v>89.064317470154251</v>
+      </c>
+      <c r="F95">
+        <v>41.463414634146339</v>
+      </c>
+      <c r="G95">
+        <v>5.56640625E-2</v>
+      </c>
+      <c r="H95">
+        <v>0.2490234375</v>
+      </c>
+      <c r="I95">
+        <v>1.177225904092327</v>
+      </c>
+      <c r="J95">
+        <v>75.168412112114424</v>
+      </c>
+      <c r="K95">
+        <v>143.31818676916399</v>
+      </c>
+      <c r="L95">
+        <v>1.9066278339816931</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>57.153558373135127</v>
+      </c>
+      <c r="C96">
+        <v>137.63191969373909</v>
+      </c>
+      <c r="D96">
+        <v>100.76329196286829</v>
+      </c>
+      <c r="E96">
+        <v>78.95736671465383</v>
+      </c>
+      <c r="F96">
+        <v>46.043165467625897</v>
+      </c>
+      <c r="G96">
+        <v>5.37109375E-2</v>
+      </c>
+      <c r="H96">
+        <v>0.2451171875</v>
+      </c>
+      <c r="I96">
+        <v>0.68823371696331359</v>
+      </c>
+      <c r="J96">
+        <v>71.250383024621129</v>
+      </c>
+      <c r="K96">
+        <v>181.12719093027189</v>
+      </c>
+      <c r="L96">
+        <v>2.5421223471554111</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>65.522375663324951</v>
+      </c>
+      <c r="C97">
+        <v>28.140251103956629</v>
+      </c>
+      <c r="D97">
+        <v>26.724878592848071</v>
+      </c>
+      <c r="E97">
+        <v>18.96894823678425</v>
+      </c>
+      <c r="F97">
+        <v>4.9382716049382713</v>
+      </c>
+      <c r="G97">
+        <v>5.95703125E-2</v>
+      </c>
+      <c r="H97">
+        <v>0.3134765625</v>
+      </c>
+      <c r="I97">
+        <v>1.1656891578026229</v>
+      </c>
+      <c r="J97">
+        <v>18.897336704270149</v>
+      </c>
+      <c r="K97">
+        <v>35.022207760066607</v>
+      </c>
+      <c r="L97">
+        <v>1.8532880219122521</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>62.06512827735969</v>
+      </c>
+      <c r="C98">
+        <v>165.57556850324511</v>
+      </c>
+      <c r="D98">
+        <v>125.0961636790836</v>
+      </c>
+      <c r="E98">
+        <v>104.469757846923</v>
+      </c>
+      <c r="F98">
+        <v>42.140468227424748</v>
+      </c>
+      <c r="G98">
+        <v>5.37109375E-2</v>
+      </c>
+      <c r="H98">
+        <v>0.197265625</v>
+      </c>
+      <c r="I98">
+        <v>1.9584891925224639</v>
+      </c>
+      <c r="J98">
+        <v>88.456332992616183</v>
+      </c>
+      <c r="K98">
+        <v>216.7901007302533</v>
+      </c>
+      <c r="L98">
+        <v>2.450814920717431</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>56.081962846416857</v>
+      </c>
+      <c r="C99">
+        <v>31.936315165841709</v>
+      </c>
+      <c r="D99">
+        <v>34.053631516984858</v>
+      </c>
+      <c r="E99">
+        <v>18.24234232271554</v>
+      </c>
+      <c r="F99">
+        <v>14.440433212996391</v>
+      </c>
+      <c r="G99">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="H99">
+        <v>0.2314453125</v>
+      </c>
+      <c r="I99">
+        <v>0.58830852471765871</v>
+      </c>
+      <c r="J99">
+        <v>24.079254866568569</v>
+      </c>
+      <c r="K99">
+        <v>38.090408389120533</v>
+      </c>
+      <c r="L99">
+        <v>1.5818765406235611</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>54.747582867437607</v>
+      </c>
+      <c r="C100">
+        <v>78.464014762710136</v>
+      </c>
+      <c r="D100">
+        <v>108.4001161677661</v>
+      </c>
+      <c r="E100">
+        <v>65.083722651298743</v>
+      </c>
+      <c r="F100">
+        <v>63.703703703703709</v>
+      </c>
+      <c r="G100">
+        <v>5.17578125E-2</v>
+      </c>
+      <c r="H100">
+        <v>0.240234375</v>
+      </c>
+      <c r="I100">
+        <v>0.21765009766042701</v>
+      </c>
+      <c r="J100">
+        <v>76.65026233516349</v>
+      </c>
+      <c r="K100">
+        <v>80.069173797364684</v>
+      </c>
+      <c r="L100">
+        <v>1.0446040412393049</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>58.863359244587848</v>
+      </c>
+      <c r="C101">
+        <v>57.503465384973907</v>
+      </c>
+      <c r="D101">
+        <v>83.588811135695892</v>
+      </c>
+      <c r="E101">
+        <v>42.071431590627427</v>
+      </c>
+      <c r="F101">
+        <v>65.979381443298962</v>
+      </c>
+      <c r="G101">
+        <v>5.6640625E-2</v>
+      </c>
+      <c r="H101">
+        <v>0.3515625</v>
+      </c>
+      <c r="I101">
+        <v>0.314683662835756</v>
+      </c>
+      <c r="J101">
+        <v>59.105483887503922</v>
+      </c>
+      <c r="K101">
+        <v>55.628853030158709</v>
+      </c>
+      <c r="L101">
+        <v>0.94117921673795424</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>57.779304713051431</v>
+      </c>
+      <c r="C102">
+        <v>85.671759686079838</v>
+      </c>
+      <c r="D102">
+        <v>48.580229851189117</v>
+      </c>
+      <c r="E102">
+        <v>35.632735936257973</v>
+      </c>
+      <c r="F102">
+        <v>17.6056338028169</v>
+      </c>
+      <c r="G102">
+        <v>5.37109375E-2</v>
+      </c>
+      <c r="H102">
+        <v>0.3037109375</v>
+      </c>
+      <c r="I102">
+        <v>2.5737141681633502</v>
+      </c>
+      <c r="J102">
+        <v>34.34956476339454</v>
+      </c>
+      <c r="K102">
+        <v>116.024274118972</v>
+      </c>
+      <c r="L102">
+        <v>3.3777509240121759</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>62.782671347308913</v>
+      </c>
+      <c r="C103">
+        <v>39.990464582771452</v>
+      </c>
+      <c r="D103">
+        <v>46.834540603580038</v>
+      </c>
+      <c r="E103">
+        <v>24.89771223921672</v>
+      </c>
+      <c r="F103">
+        <v>35.483870967741943</v>
+      </c>
+      <c r="G103">
+        <v>4.00390625E-2</v>
+      </c>
+      <c r="H103">
+        <v>0.294921875</v>
+      </c>
+      <c r="I103">
+        <v>0.1738659207515543</v>
+      </c>
+      <c r="J103">
+        <v>33.116992896734637</v>
+      </c>
+      <c r="K103">
+        <v>45.735423179442712</v>
+      </c>
+      <c r="L103">
+        <v>1.381025847426874</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>71.547255946175923</v>
+      </c>
+      <c r="C104">
+        <v>32.288741725590206</v>
+      </c>
+      <c r="D104">
+        <v>28.145547267479369</v>
+      </c>
+      <c r="E104">
+        <v>15.945402490600619</v>
+      </c>
+      <c r="F104">
+        <v>6.4788732394366191</v>
+      </c>
+      <c r="G104">
+        <v>9.08203125E-2</v>
+      </c>
+      <c r="H104">
+        <v>0.26171875</v>
+      </c>
+      <c r="I104">
+        <v>0.4652434237738271</v>
+      </c>
+      <c r="J104">
+        <v>19.90184503573035</v>
+      </c>
+      <c r="K104">
+        <v>41.066520902795141</v>
+      </c>
+      <c r="L104">
+        <v>2.063452952681887</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>64.450997002197951</v>
+      </c>
+      <c r="C105">
+        <v>68.682814414374576</v>
+      </c>
+      <c r="D105">
+        <v>46.540913224533803</v>
+      </c>
+      <c r="E105">
+        <v>26.018508030883812</v>
+      </c>
+      <c r="F105">
+        <v>30.188679245283019</v>
+      </c>
+      <c r="G105">
+        <v>7.2265625E-2</v>
+      </c>
+      <c r="H105">
+        <v>0.2587890625</v>
+      </c>
+      <c r="I105">
+        <v>0.44972222600128492</v>
+      </c>
+      <c r="J105">
+        <v>32.907749835090392</v>
+      </c>
+      <c r="K105">
+        <v>91.198589279673541</v>
+      </c>
+      <c r="L105">
+        <v>2.7713407855807302</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>44.931387648587332</v>
+      </c>
+      <c r="C106">
+        <v>589.04912718420587</v>
+      </c>
+      <c r="D106">
+        <v>913.19659776962078</v>
+      </c>
+      <c r="E106">
+        <v>532.39159250568161</v>
+      </c>
+      <c r="F106">
+        <v>92.146596858638745</v>
+      </c>
+      <c r="G106">
+        <v>8.88671875E-2</v>
+      </c>
+      <c r="H106">
+        <v>0.236328125</v>
+      </c>
+      <c r="I106">
+        <v>0.50204443166646562</v>
+      </c>
+      <c r="J106">
+        <v>645.72697908251848</v>
+      </c>
+      <c r="K106">
+        <v>522.58022239725688</v>
+      </c>
+      <c r="L106">
+        <v>0.80928974524150321</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>59.490621946267773</v>
+      </c>
+      <c r="C107">
+        <v>135.61042707891579</v>
+      </c>
+      <c r="D107">
+        <v>64.607791067847742</v>
+      </c>
+      <c r="E107">
+        <v>38.978432321189842</v>
+      </c>
+      <c r="F107">
+        <v>47.916666666666671</v>
+      </c>
+      <c r="G107">
+        <v>4.00390625E-2</v>
+      </c>
+      <c r="H107">
+        <v>0.2724609375</v>
+      </c>
+      <c r="I107">
+        <v>0.2032817581487015</v>
+      </c>
+      <c r="J107">
+        <v>45.676244898128687</v>
+      </c>
+      <c r="K107">
+        <v>185.53024552672889</v>
+      </c>
+      <c r="L107">
+        <v>4.0618541638113062</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>61.123083603950519</v>
+      </c>
+      <c r="C108">
+        <v>127.5226589730141</v>
+      </c>
+      <c r="D108">
+        <v>104.8828845097581</v>
+      </c>
+      <c r="E108">
+        <v>75.627238398950354</v>
+      </c>
+      <c r="F108">
+        <v>53.355704697986567</v>
+      </c>
+      <c r="G108">
+        <v>4.4921875E-2</v>
+      </c>
+      <c r="H108">
+        <v>0.2548828125</v>
+      </c>
+      <c r="I108">
+        <v>2.4474478699182312</v>
+      </c>
+      <c r="J108">
+        <v>74.162843103496371</v>
+      </c>
+      <c r="K108">
+        <v>164.12155628078051</v>
+      </c>
+      <c r="L108">
+        <v>2.2129890038296418</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>64.437931796224376</v>
+      </c>
+      <c r="C109">
+        <v>55.039433752164612</v>
+      </c>
+      <c r="D109">
+        <v>52.842235823178918</v>
+      </c>
+      <c r="E109">
+        <v>30.052713774664529</v>
+      </c>
+      <c r="F109">
+        <v>38.9937106918239</v>
+      </c>
+      <c r="G109">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="H109">
+        <v>0.2197265625</v>
+      </c>
+      <c r="I109">
+        <v>0.35929505319401822</v>
+      </c>
+      <c r="J109">
+        <v>37.364273317344292</v>
+      </c>
+      <c r="K109">
+        <v>67.390739187037482</v>
+      </c>
+      <c r="L109">
+        <v>1.803614340754623</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>68.166253261593965</v>
+      </c>
+      <c r="C110">
+        <v>277.3943567326582</v>
+      </c>
+      <c r="D110">
+        <v>338.88375782874579</v>
+      </c>
+      <c r="E110">
+        <v>234.19244674737621</v>
+      </c>
+      <c r="F110">
+        <v>70.297029702970292</v>
+      </c>
+      <c r="G110">
+        <v>4.58984375E-2</v>
+      </c>
+      <c r="H110">
+        <v>0.2880859375</v>
+      </c>
+      <c r="I110">
+        <v>1.183691038932758</v>
+      </c>
+      <c r="J110">
+        <v>239.62256421607421</v>
+      </c>
+      <c r="K110">
+        <v>309.3002200548504</v>
+      </c>
+      <c r="L110">
+        <v>1.290780862256135</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M37">
     <sortCondition ref="F2:F37"/>
